--- a/data/supplementary_data/SupplementaryTable6.xlsx
+++ b/data/supplementary_data/SupplementaryTable6.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobia\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tobia\Documents\papers\insulators\data\supplementary_data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B77AD97-0418-4C4D-B11C-11475214812D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{152CA90D-7B91-46D6-9653-69C7BBBFE074}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="0" windowWidth="26010" windowHeight="20985" xr2:uid="{969812B1-ABD7-4D35-AFC0-EDA851F10B2D}"/>
+    <workbookView xWindow="19560" yWindow="4080" windowWidth="24300" windowHeight="16800" xr2:uid="{969812B1-ABD7-4D35-AFC0-EDA851F10B2D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -135,7 +135,7 @@
   </si>
   <si>
     <r>
-      <t>Supplementary Table 6.</t>
+      <t>Supplementary Table S6.</t>
     </r>
     <r>
       <rPr>
@@ -553,7 +553,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomLeft" sqref="A1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
